--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_4_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_4_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>336692.7711240181</v>
+        <v>330493.5115104743</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4007641.222356119</v>
+        <v>3066682.76249266</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15407201.0825513</v>
+        <v>14484967.69603912</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6016680.529445014</v>
+        <v>6404377.233734967</v>
       </c>
     </row>
     <row r="11">
@@ -656,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>119.5504549011779</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>119.5504549011779</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="X2" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="U2" t="n">
+      <c r="Y2" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>135.7293992974318</v>
+        <v>121.9329941289853</v>
       </c>
       <c r="D3" t="n">
         <v>135.7293992974318</v>
@@ -747,7 +749,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="F3" t="n">
-        <v>60.36402868517423</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -826,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>60.09378870120887</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>135.7293992974318</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>29.81855126207275</v>
       </c>
       <c r="U5" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>29.81855126207272</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>40.12721019528833</v>
       </c>
       <c r="F6" t="n">
-        <v>119.5504549011779</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1038,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1060,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>60.09378870120875</v>
+      </c>
+      <c r="G7" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>119.5504549011778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,70 +1138,70 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>89.73190363910518</v>
+      </c>
+      <c r="S8" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>119.5504549011779</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>29.81855126207271</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>135.7293992974318</v>
@@ -1266,13 +1268,13 @@
         <v>135.7293992974318</v>
       </c>
       <c r="U9" t="n">
+        <v>60.36402868517425</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="V9" t="n">
-        <v>119.5504549011779</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1339,13 +1341,13 @@
         <v>135.7293992974318</v>
       </c>
       <c r="S10" t="n">
-        <v>81.39848696832993</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="T10" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="U10" t="n">
-        <v>135.7293992974318</v>
+        <v>81.39848696832999</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1376,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>119.5504549011779</v>
@@ -1385,7 +1387,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="I11" t="n">
         <v>135.7293992974318</v>
@@ -1455,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>99.31363641129199</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>60.36402868517423</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1528,28 +1530,28 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>21.94182076836087</v>
+      </c>
+      <c r="G13" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="H13" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="F13" t="n">
+      <c r="I13" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>119.5504549011778</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,22 +1609,22 @@
         <v>135.7293992974318</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1689,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1740,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>119.5504549011779</v>
+      </c>
+      <c r="Y15" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>119.5504549011779</v>
       </c>
     </row>
     <row r="16">
@@ -1765,64 +1767,64 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="T16" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="I16" t="n">
+      <c r="U16" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="J16" t="n">
-        <v>59.456666199969</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>60.09378870120875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1850,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.19793622765918</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1898,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>135.7293992974318</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>135.7293992974318</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -1920,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>99.31363641129199</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
         <v>133.3468600696244</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1977,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>99.51704826962602</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="19">
@@ -2008,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>119.5504549011778</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2126,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>252.3364829231459</v>
+        <v>226.431753852442</v>
       </c>
       <c r="V20" t="n">
-        <v>169.4103870719354</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
         <v>378.2098390737216</v>
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>139.5434993309349</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
         <v>160.0866360314548</v>
@@ -2211,7 +2213,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>177.6560692184699</v>
       </c>
       <c r="U21" t="n">
         <v>216.3098444776729</v>
@@ -2223,7 +2225,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2281,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T22" t="n">
-        <v>128.9874563185103</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>84.31882417064563</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>378.1144210805207</v>
@@ -2324,19 +2326,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>123.6455342549405</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I23" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>249.6246200034147</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -2403,13 +2405,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>151.2714921173871</v>
@@ -2485,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>86.22604835954583</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>130.14760666441</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
         <v>369.0957251250487</v>
@@ -2567,7 +2569,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>29.90880826332114</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>10.70396802377526</v>
       </c>
     </row>
     <row r="27">
@@ -2640,13 +2642,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E27" t="n">
-        <v>19.18172622600089</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
         <v>98.93847887876893</v>
@@ -2679,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>186.7982527956746</v>
@@ -2694,7 +2696,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W27" t="n">
-        <v>238.9027100790231</v>
+        <v>62.19654974814488</v>
       </c>
       <c r="X27" t="n">
         <v>195.9378182409833</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>86.89088639877548</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>268.6107013963112</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
@@ -2795,16 +2797,16 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0096787829314</v>
+        <v>129.6961270473219</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>199.8261755653738</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C30" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D30" t="n">
-        <v>137.45025063969</v>
+        <v>110.0127259007624</v>
       </c>
       <c r="E30" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2934,10 +2936,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X30" t="n">
-        <v>89.49663856023973</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>84.31882417064588</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>177.0990279530006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,13 +3031,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>43.73523355801913</v>
+        <v>325.428175145475</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3083,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3123,7 +3125,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T33" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U33" t="n">
-        <v>216.3098444776729</v>
+        <v>55.25743213955324</v>
       </c>
       <c r="V33" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>161.1350286269139</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X33" t="n">
         <v>195.9378182409833</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>25.5578537124857</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>12.59665167322035</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3269,7 +3271,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>129.8691904574537</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3326,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>280.4475055158738</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3351,16 +3353,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3399,7 +3401,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U36" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
@@ -3408,7 +3410,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X36" t="n">
-        <v>195.9378182409833</v>
+        <v>25.08358405438712</v>
       </c>
       <c r="Y36" t="n">
         <v>190.5961130869169</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>73.75270603218317</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>120.5841378245459</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3512,16 +3514,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>186.9267953736667</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>264.6140443848041</v>
       </c>
     </row>
     <row r="39">
@@ -3582,25 +3584,25 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
-        <v>121.5789354633579</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3636,7 +3638,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U39" t="n">
-        <v>216.3098444776729</v>
+        <v>124.0220629331564</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -3645,7 +3647,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X39" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>190.5961130869169</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>56.78874461372734</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3721,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>61.72400032816224</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
         <v>390.8378626949542</v>
@@ -3755,7 +3757,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>37.48548488811728</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>46.09663431817579</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C42" t="n">
-        <v>53.64545635071116</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D42" t="n">
         <v>137.45025063969</v>
@@ -3828,16 +3830,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -3885,7 +3887,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="43">
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.0380364259622</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>242.420315677682</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3977,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>269.2789754077473</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>29.81855126207271</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4053,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E45" t="n">
-        <v>99.31363641129199</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G45" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="46">
@@ -4138,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4355,25 +4357,25 @@
         <v>542.9175971897271</v>
       </c>
       <c r="S2" t="n">
+        <v>542.9175971897271</v>
+      </c>
+      <c r="T2" t="n">
         <v>422.159561936012</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
+        <v>422.159561936012</v>
+      </c>
+      <c r="V2" t="n">
+        <v>422.159561936012</v>
+      </c>
+      <c r="W2" t="n">
         <v>285.0591586052728</v>
-      </c>
-      <c r="U2" t="n">
-        <v>147.9587552745337</v>
-      </c>
-      <c r="V2" t="n">
-        <v>147.9587552745337</v>
-      </c>
-      <c r="W2" t="n">
-        <v>147.9587552745337</v>
       </c>
       <c r="X2" t="n">
         <v>147.9587552745337</v>
       </c>
       <c r="Y2" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="C3" t="n">
-        <v>346.0329249539337</v>
+        <v>419.7529566553985</v>
       </c>
       <c r="D3" t="n">
-        <v>208.9325216231946</v>
+        <v>282.6525533246594</v>
       </c>
       <c r="E3" t="n">
-        <v>71.83211829245539</v>
+        <v>145.5521499939202</v>
       </c>
       <c r="F3" t="n">
         <v>10.85835194379454</v>
@@ -4431,28 +4433,28 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R3" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S3" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T3" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U3" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="V3" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="W3" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="X3" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Y3" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.85835194379454</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="C4" t="n">
-        <v>10.85835194379454</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="D4" t="n">
-        <v>10.85835194379454</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="E4" t="n">
-        <v>10.85835194379454</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="F4" t="n">
-        <v>10.85835194379454</v>
+        <v>482.2168005218393</v>
       </c>
       <c r="G4" t="n">
-        <v>10.85835194379454</v>
+        <v>345.1163971911002</v>
       </c>
       <c r="H4" t="n">
-        <v>10.85835194379454</v>
+        <v>208.015993860361</v>
       </c>
       <c r="I4" t="n">
-        <v>10.85835194379454</v>
+        <v>70.91559052962184</v>
       </c>
       <c r="J4" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="K4" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843799</v>
       </c>
       <c r="L4" t="n">
         <v>145.0696190886975</v>
@@ -4498,10 +4500,10 @@
         <v>263.0631252162992</v>
       </c>
       <c r="N4" t="n">
-        <v>381.4854669658995</v>
+        <v>381.4854669658997</v>
       </c>
       <c r="O4" t="n">
-        <v>479.9491134615892</v>
+        <v>479.9491134615893</v>
       </c>
       <c r="P4" t="n">
         <v>542.9175971897271</v>
@@ -4510,28 +4512,28 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R4" t="n">
-        <v>422.159561936012</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S4" t="n">
-        <v>285.0591586052728</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T4" t="n">
-        <v>147.9587552745337</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U4" t="n">
-        <v>10.85835194379454</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="V4" t="n">
-        <v>10.85835194379454</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="W4" t="n">
-        <v>10.85835194379454</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="X4" t="n">
-        <v>10.85835194379454</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.85835194379454</v>
+        <v>542.9175971897271</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.85835194379454</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="C5" t="n">
-        <v>10.85835194379454</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="D5" t="n">
-        <v>10.85835194379454</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="E5" t="n">
-        <v>10.85835194379454</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="F5" t="n">
-        <v>10.85835194379454</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="G5" t="n">
-        <v>10.85835194379454</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="H5" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="I5" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J5" t="n">
-        <v>10.85835194379454</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="K5" t="n">
-        <v>10.85835194379454</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="L5" t="n">
-        <v>145.230457248252</v>
+        <v>351.6011068255151</v>
       </c>
       <c r="M5" t="n">
-        <v>279.6025625527094</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="N5" t="n">
-        <v>413.9746678571669</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="O5" t="n">
-        <v>542.9175971897271</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="P5" t="n">
-        <v>542.9175971897271</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="Q5" t="n">
         <v>542.9175971897271</v>
@@ -4595,22 +4597,22 @@
         <v>315.1789073548413</v>
       </c>
       <c r="T5" t="n">
-        <v>315.1789073548413</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="U5" t="n">
-        <v>178.0785040241021</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="V5" t="n">
-        <v>178.0785040241021</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="W5" t="n">
-        <v>147.9587552745337</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="X5" t="n">
-        <v>10.85835194379454</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.85835194379454</v>
+        <v>285.0591586052728</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268.7167905282488</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="C6" t="n">
-        <v>131.6163871975096</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="D6" t="n">
-        <v>131.6163871975096</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="E6" t="n">
-        <v>131.6163871975096</v>
+        <v>442.6007927338766</v>
       </c>
       <c r="F6" t="n">
-        <v>10.85835194379454</v>
+        <v>307.9069946837509</v>
       </c>
       <c r="G6" t="n">
-        <v>10.85835194379454</v>
+        <v>179.1784947070355</v>
       </c>
       <c r="H6" t="n">
-        <v>10.85835194379454</v>
+        <v>79.24063725373355</v>
       </c>
       <c r="I6" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J6" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K6" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L6" t="n">
-        <v>205.4846037813581</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="M6" t="n">
         <v>274.1733865808121</v>
@@ -4659,37 +4661,37 @@
         <v>408.5454918852696</v>
       </c>
       <c r="O6" t="n">
-        <v>408.5454918852696</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="P6" t="n">
-        <v>408.5454918852696</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q6" t="n">
         <v>542.9175971897271</v>
       </c>
       <c r="R6" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="S6" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="T6" t="n">
-        <v>405.8171938589879</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="U6" t="n">
-        <v>405.8171938589879</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="V6" t="n">
-        <v>405.8171938589879</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="W6" t="n">
-        <v>405.8171938589879</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="X6" t="n">
-        <v>268.7167905282488</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="Y6" t="n">
-        <v>268.7167905282488</v>
+        <v>483.1333282846729</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>147.9587552745337</v>
+        <v>542.917597189727</v>
       </c>
       <c r="C7" t="n">
-        <v>147.9587552745337</v>
+        <v>542.917597189727</v>
       </c>
       <c r="D7" t="n">
-        <v>147.9587552745337</v>
+        <v>542.917597189727</v>
       </c>
       <c r="E7" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
       <c r="F7" t="n">
-        <v>10.85835194379454</v>
+        <v>482.2168005218393</v>
       </c>
       <c r="G7" t="n">
-        <v>10.85835194379454</v>
+        <v>345.1163971911002</v>
       </c>
       <c r="H7" t="n">
-        <v>10.85835194379454</v>
+        <v>208.015993860361</v>
       </c>
       <c r="I7" t="n">
-        <v>10.85835194379454</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="J7" t="n">
         <v>10.85835194379454</v>
@@ -4762,13 +4764,13 @@
         <v>542.917597189727</v>
       </c>
       <c r="W7" t="n">
-        <v>405.8171938589878</v>
+        <v>542.917597189727</v>
       </c>
       <c r="X7" t="n">
-        <v>268.7167905282487</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Y7" t="n">
-        <v>147.9587552745337</v>
+        <v>542.917597189727</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C8" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D8" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E8" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F8" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G8" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H8" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I8" t="n">
         <v>10.85835194379454</v>
@@ -4805,19 +4807,19 @@
         <v>82.85689621660021</v>
       </c>
       <c r="K8" t="n">
-        <v>217.2290015210577</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="L8" t="n">
+        <v>82.85689621660021</v>
+      </c>
+      <c r="M8" t="n">
+        <v>82.85689621660021</v>
+      </c>
+      <c r="N8" t="n">
+        <v>179.7411328942751</v>
+      </c>
+      <c r="O8" t="n">
         <v>314.1132381987326</v>
-      </c>
-      <c r="M8" t="n">
-        <v>314.1132381987326</v>
-      </c>
-      <c r="N8" t="n">
-        <v>314.1132381987326</v>
-      </c>
-      <c r="O8" t="n">
-        <v>448.4853435031901</v>
       </c>
       <c r="P8" t="n">
         <v>448.4853435031901</v>
@@ -4826,28 +4828,28 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R8" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="S8" t="n">
-        <v>542.9175971897271</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="T8" t="n">
-        <v>542.9175971897271</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="U8" t="n">
-        <v>542.9175971897271</v>
+        <v>40.97810069336293</v>
       </c>
       <c r="V8" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="W8" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X8" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y8" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="9">
@@ -4887,13 +4889,13 @@
         <v>71.11249847690068</v>
       </c>
       <c r="L9" t="n">
-        <v>71.11249847690068</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="M9" t="n">
-        <v>205.4846037813581</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="N9" t="n">
-        <v>339.8567090858156</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="O9" t="n">
         <v>408.5454918852696</v>
@@ -4905,19 +4907,19 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R9" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="S9" t="n">
-        <v>405.8171938589879</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="T9" t="n">
-        <v>268.7167905282488</v>
+        <v>208.9325216231946</v>
       </c>
       <c r="U9" t="n">
-        <v>131.6163871975096</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="V9" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="W9" t="n">
         <v>10.85835194379454</v>
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="C10" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="D10" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="E10" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="F10" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="G10" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="H10" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="I10" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="J10" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="K10" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843799</v>
       </c>
       <c r="L10" t="n">
         <v>145.0696190886975</v>
@@ -4972,40 +4974,40 @@
         <v>263.0631252162992</v>
       </c>
       <c r="N10" t="n">
-        <v>381.4854669658995</v>
+        <v>381.4854669658997</v>
       </c>
       <c r="O10" t="n">
-        <v>479.9491134615892</v>
+        <v>479.9491134615893</v>
       </c>
       <c r="P10" t="n">
-        <v>542.917597189727</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q10" t="n">
-        <v>504.380255843416</v>
+        <v>504.3802558434161</v>
       </c>
       <c r="R10" t="n">
-        <v>367.2798525126768</v>
+        <v>367.2798525126769</v>
       </c>
       <c r="S10" t="n">
-        <v>285.0591586052728</v>
+        <v>230.1794491819378</v>
       </c>
       <c r="T10" t="n">
-        <v>147.9587552745337</v>
+        <v>93.0790458511986</v>
       </c>
       <c r="U10" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="V10" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="W10" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="X10" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
     </row>
     <row r="11">
@@ -5024,13 +5026,13 @@
         <v>542.9175971897271</v>
       </c>
       <c r="E11" t="n">
-        <v>405.8171938589879</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="F11" t="n">
+        <v>422.159561936012</v>
+      </c>
+      <c r="G11" t="n">
         <v>285.0591586052728</v>
-      </c>
-      <c r="G11" t="n">
-        <v>147.9587552745337</v>
       </c>
       <c r="H11" t="n">
         <v>147.9587552745337</v>
@@ -5042,16 +5044,16 @@
         <v>82.85689621660021</v>
       </c>
       <c r="K11" t="n">
-        <v>217.2290015210577</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="L11" t="n">
-        <v>314.1132381987326</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="M11" t="n">
-        <v>314.1132381987326</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="N11" t="n">
-        <v>314.1132381987326</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="O11" t="n">
         <v>314.1132381987326</v>
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C12" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D12" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E12" t="n">
-        <v>442.6007927338766</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F12" t="n">
-        <v>307.9069946837509</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G12" t="n">
-        <v>179.1784947070355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H12" t="n">
-        <v>79.24063725373355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I12" t="n">
         <v>10.85835194379454</v>
@@ -5124,16 +5126,16 @@
         <v>205.4846037813581</v>
       </c>
       <c r="L12" t="n">
-        <v>339.8567090858156</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="M12" t="n">
-        <v>339.8567090858156</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="N12" t="n">
-        <v>339.8567090858156</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="O12" t="n">
-        <v>339.8567090858156</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="P12" t="n">
         <v>408.5454918852696</v>
@@ -5142,28 +5144,28 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R12" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="S12" t="n">
-        <v>542.9175971897271</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="T12" t="n">
-        <v>542.9175971897271</v>
+        <v>208.9325216231946</v>
       </c>
       <c r="U12" t="n">
-        <v>542.9175971897271</v>
+        <v>71.83211829245539</v>
       </c>
       <c r="V12" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="W12" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X12" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y12" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>422.159561936012</v>
+        <v>504.380255843416</v>
       </c>
       <c r="C13" t="n">
-        <v>285.0591586052728</v>
+        <v>504.380255843416</v>
       </c>
       <c r="D13" t="n">
-        <v>285.0591586052728</v>
+        <v>504.380255843416</v>
       </c>
       <c r="E13" t="n">
-        <v>147.9587552745337</v>
+        <v>504.380255843416</v>
       </c>
       <c r="F13" t="n">
-        <v>10.85835194379454</v>
+        <v>482.2168005218393</v>
       </c>
       <c r="G13" t="n">
-        <v>10.85835194379454</v>
+        <v>345.1163971911002</v>
       </c>
       <c r="H13" t="n">
-        <v>10.85835194379454</v>
+        <v>208.015993860361</v>
       </c>
       <c r="I13" t="n">
-        <v>10.85835194379454</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="J13" t="n">
         <v>10.85835194379454</v>
@@ -5218,31 +5220,31 @@
         <v>542.917597189727</v>
       </c>
       <c r="Q13" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="R13" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="S13" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="T13" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="U13" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="V13" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="W13" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="X13" t="n">
-        <v>422.159561936012</v>
+        <v>504.380255843416</v>
       </c>
       <c r="Y13" t="n">
-        <v>422.159561936012</v>
+        <v>504.380255843416</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>147.9587552745337</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="C14" t="n">
-        <v>10.85835194379454</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="D14" t="n">
-        <v>10.85835194379454</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="E14" t="n">
-        <v>10.85835194379454</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="F14" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="G14" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="H14" t="n">
         <v>10.85835194379454</v>
@@ -5279,22 +5281,22 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K14" t="n">
-        <v>145.230457248252</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L14" t="n">
         <v>145.230457248252</v>
       </c>
       <c r="M14" t="n">
-        <v>145.230457248252</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="N14" t="n">
-        <v>179.7411328942751</v>
+        <v>413.9746678571669</v>
       </c>
       <c r="O14" t="n">
-        <v>314.1132381987326</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="P14" t="n">
-        <v>448.4853435031901</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q14" t="n">
         <v>542.9175971897271</v>
@@ -5312,16 +5314,16 @@
         <v>542.9175971897271</v>
       </c>
       <c r="V14" t="n">
-        <v>422.159561936012</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="W14" t="n">
-        <v>422.159561936012</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="X14" t="n">
-        <v>422.159561936012</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Y14" t="n">
-        <v>285.0591586052728</v>
+        <v>542.9175971897271</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C15" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="D15" t="n">
         <v>10.85835194379454</v>
@@ -5358,22 +5360,22 @@
         <v>71.11249847690068</v>
       </c>
       <c r="K15" t="n">
+        <v>71.11249847690068</v>
+      </c>
+      <c r="L15" t="n">
+        <v>71.11249847690068</v>
+      </c>
+      <c r="M15" t="n">
+        <v>71.11249847690068</v>
+      </c>
+      <c r="N15" t="n">
         <v>205.4846037813581</v>
       </c>
-      <c r="L15" t="n">
+      <c r="O15" t="n">
         <v>339.8567090858156</v>
       </c>
-      <c r="M15" t="n">
+      <c r="P15" t="n">
         <v>474.2288143902731</v>
-      </c>
-      <c r="N15" t="n">
-        <v>474.2288143902731</v>
-      </c>
-      <c r="O15" t="n">
-        <v>474.2288143902731</v>
-      </c>
-      <c r="P15" t="n">
-        <v>542.9175971897271</v>
       </c>
       <c r="Q15" t="n">
         <v>542.9175971897271</v>
@@ -5388,19 +5390,19 @@
         <v>542.9175971897271</v>
       </c>
       <c r="U15" t="n">
-        <v>405.8171938589879</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="V15" t="n">
-        <v>405.8171938589879</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="W15" t="n">
-        <v>405.8171938589879</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="X15" t="n">
-        <v>268.7167905282488</v>
+        <v>422.159561936012</v>
       </c>
       <c r="Y15" t="n">
-        <v>147.9587552745337</v>
+        <v>285.0591586052728</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>482.2168005218393</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C16" t="n">
-        <v>345.1163971911002</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D16" t="n">
-        <v>345.1163971911002</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E16" t="n">
-        <v>345.1163971911002</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F16" t="n">
-        <v>345.1163971911002</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G16" t="n">
-        <v>345.1163971911002</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H16" t="n">
-        <v>208.015993860361</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I16" t="n">
-        <v>70.91559052962182</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J16" t="n">
         <v>10.85835194379454</v>
@@ -5461,25 +5463,25 @@
         <v>542.917597189727</v>
       </c>
       <c r="S16" t="n">
-        <v>542.917597189727</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="T16" t="n">
-        <v>542.917597189727</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="U16" t="n">
-        <v>542.917597189727</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="V16" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="W16" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X16" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y16" t="n">
-        <v>482.2168005218393</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10.85835194379454</v>
+        <v>478.4240529927279</v>
       </c>
       <c r="C17" t="n">
-        <v>10.85835194379454</v>
+        <v>478.4240529927279</v>
       </c>
       <c r="D17" t="n">
-        <v>10.85835194379454</v>
+        <v>478.4240529927279</v>
       </c>
       <c r="E17" t="n">
-        <v>10.85835194379454</v>
+        <v>83.63833309883478</v>
       </c>
       <c r="F17" t="n">
-        <v>10.85835194379454</v>
+        <v>83.63833309883478</v>
       </c>
       <c r="G17" t="n">
-        <v>10.85835194379454</v>
+        <v>83.63833309883478</v>
       </c>
       <c r="H17" t="n">
-        <v>10.85835194379454</v>
+        <v>83.63833309883478</v>
       </c>
       <c r="I17" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J17" t="n">
-        <v>10.85835194379454</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K17" t="n">
-        <v>45.36902758981768</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L17" t="n">
-        <v>179.7411328942751</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M17" t="n">
-        <v>314.1132381987326</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N17" t="n">
-        <v>448.4853435031901</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O17" t="n">
-        <v>448.4853435031901</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P17" t="n">
-        <v>448.4853435031901</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q17" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R17" t="n">
-        <v>542.9175971897271</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S17" t="n">
-        <v>542.9175971897271</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T17" t="n">
-        <v>542.9175971897271</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U17" t="n">
-        <v>422.159561936012</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V17" t="n">
-        <v>285.0591586052728</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="W17" t="n">
-        <v>285.0591586052728</v>
+        <v>1648.039588413416</v>
       </c>
       <c r="X17" t="n">
-        <v>147.9587552745337</v>
+        <v>1266.009447934909</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.85835194379454</v>
+        <v>872.4675925107471</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>542.9175971897271</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C18" t="n">
-        <v>542.9175971897271</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D18" t="n">
-        <v>542.9175971897271</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E18" t="n">
-        <v>442.6007927338766</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F18" t="n">
-        <v>307.9069946837509</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G18" t="n">
-        <v>179.1784947070355</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H18" t="n">
-        <v>79.24063725373355</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I18" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J18" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K18" t="n">
-        <v>145.230457248252</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L18" t="n">
-        <v>279.6025625527094</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M18" t="n">
-        <v>413.9746678571669</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N18" t="n">
-        <v>542.9175971897271</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O18" t="n">
-        <v>542.9175971897271</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P18" t="n">
-        <v>542.9175971897271</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q18" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R18" t="n">
-        <v>542.9175971897271</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S18" t="n">
-        <v>542.9175971897271</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T18" t="n">
-        <v>542.9175971897271</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="U18" t="n">
-        <v>542.9175971897271</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V18" t="n">
-        <v>542.9175971897271</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W18" t="n">
-        <v>542.9175971897271</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X18" t="n">
-        <v>542.9175971897271</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y18" t="n">
-        <v>542.9175971897271</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>405.8171938589878</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C19" t="n">
-        <v>405.8171938589878</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D19" t="n">
-        <v>405.8171938589878</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E19" t="n">
-        <v>285.0591586052728</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F19" t="n">
-        <v>147.9587552745337</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K19" t="n">
-        <v>44.46253968843796</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L19" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M19" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N19" t="n">
-        <v>381.4854669658995</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O19" t="n">
-        <v>479.9491134615892</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P19" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q19" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R19" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S19" t="n">
-        <v>405.8171938589878</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T19" t="n">
-        <v>405.8171938589878</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U19" t="n">
-        <v>405.8171938589878</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V19" t="n">
-        <v>405.8171938589878</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W19" t="n">
-        <v>405.8171938589878</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X19" t="n">
-        <v>405.8171938589878</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y19" t="n">
-        <v>405.8171938589878</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="20">
@@ -5774,19 +5776,19 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R20" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S20" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T20" t="n">
-        <v>1598.98659691718</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U20" t="n">
-        <v>1344.101260631174</v>
+        <v>1872.493861774666</v>
       </c>
       <c r="V20" t="n">
-        <v>1172.979657528209</v>
+        <v>1535.514587670608</v>
       </c>
       <c r="W20" t="n">
         <v>1172.979657528209</v>
@@ -5838,16 +5840,16 @@
         <v>468.100247804421</v>
       </c>
       <c r="M21" t="n">
-        <v>895.6512888769911</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N21" t="n">
-        <v>1406.916935000113</v>
+        <v>1464.39924743777</v>
       </c>
       <c r="O21" t="n">
-        <v>1799.116885784264</v>
+        <v>1856.59919822192</v>
       </c>
       <c r="P21" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q21" t="n">
         <v>2101.212805059961</v>
@@ -5859,22 +5861,22 @@
         <v>1948.413318072701</v>
       </c>
       <c r="T21" t="n">
-        <v>1948.413318072701</v>
+        <v>1768.96274310455</v>
       </c>
       <c r="U21" t="n">
-        <v>1729.918525671012</v>
+        <v>1550.46795070286</v>
       </c>
       <c r="V21" t="n">
-        <v>1501.522903119346</v>
+        <v>1322.072328151194</v>
       </c>
       <c r="W21" t="n">
-        <v>1260.207034352656</v>
+        <v>1080.756459384504</v>
       </c>
       <c r="X21" t="n">
-        <v>1062.29004623045</v>
+        <v>1080.756459384504</v>
       </c>
       <c r="Y21" t="n">
-        <v>1062.29004623045</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="C22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="D22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="E22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="F22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="G22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="H22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="I22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="J22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="K22" t="n">
-        <v>75.62844384584264</v>
+        <v>1602.757747558672</v>
       </c>
       <c r="L22" t="n">
-        <v>176.2355232461022</v>
+        <v>1703.364826958932</v>
       </c>
       <c r="M22" t="n">
-        <v>294.2290293737039</v>
+        <v>1821.358333086534</v>
       </c>
       <c r="N22" t="n">
-        <v>412.6513711233043</v>
+        <v>1939.780674836134</v>
       </c>
       <c r="O22" t="n">
-        <v>511.1150176189939</v>
+        <v>2038.244321331824</v>
       </c>
       <c r="P22" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q22" t="n">
-        <v>535.5461600008207</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R22" t="n">
-        <v>386.0243786151989</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S22" t="n">
-        <v>172.3146160188864</v>
+        <v>1887.503042463649</v>
       </c>
       <c r="T22" t="n">
-        <v>42.02425610119923</v>
+        <v>1654.324089279328</v>
       </c>
       <c r="U22" t="n">
-        <v>42.02425610119923</v>
+        <v>1654.324089279328</v>
       </c>
       <c r="V22" t="n">
-        <v>42.02425610119923</v>
+        <v>1654.324089279328</v>
       </c>
       <c r="W22" t="n">
-        <v>42.02425610119923</v>
+        <v>1654.324089279328</v>
       </c>
       <c r="X22" t="n">
-        <v>42.02425610119923</v>
+        <v>1654.324089279328</v>
       </c>
       <c r="Y22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1364.384898226265</v>
+        <v>1254.497732989254</v>
       </c>
       <c r="C23" t="n">
-        <v>982.4511395590728</v>
+        <v>872.5639743220609</v>
       </c>
       <c r="D23" t="n">
-        <v>609.6271747862963</v>
+        <v>499.7400095492844</v>
       </c>
       <c r="E23" t="n">
-        <v>214.8414548924032</v>
+        <v>499.7400095492844</v>
       </c>
       <c r="F23" t="n">
-        <v>214.8414548924032</v>
+        <v>499.7400095492844</v>
       </c>
       <c r="G23" t="n">
-        <v>214.8414548924032</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H23" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I23" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J23" t="n">
         <v>114.0228003740049</v>
@@ -6026,13 +6028,13 @@
         <v>2010.574518555815</v>
       </c>
       <c r="W23" t="n">
-        <v>2010.574518555815</v>
+        <v>1648.039588413416</v>
       </c>
       <c r="X23" t="n">
-        <v>2010.574518555815</v>
+        <v>1648.039588413416</v>
       </c>
       <c r="Y23" t="n">
-        <v>1758.428437744285</v>
+        <v>1254.497732989254</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>461.879904359699</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C24" t="n">
-        <v>300.1762316006536</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D24" t="n">
-        <v>161.3375945908657</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E24" t="n">
-        <v>42.02425610119923</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F24" t="n">
-        <v>42.02425610119923</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="G24" t="n">
         <v>42.02425610119923</v>
@@ -6066,13 +6068,13 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J24" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K24" t="n">
-        <v>42.02425610119923</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L24" t="n">
-        <v>252.8463055811703</v>
+        <v>331.768955194494</v>
       </c>
       <c r="M24" t="n">
         <v>737.8796590913968</v>
@@ -6090,28 +6092,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R24" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S24" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T24" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U24" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V24" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W24" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X24" t="n">
-        <v>813.8206734913811</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y24" t="n">
-        <v>621.2993471409599</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>386.0243786151989</v>
+        <v>129.121274646195</v>
       </c>
       <c r="C25" t="n">
-        <v>386.0243786151989</v>
+        <v>129.121274646195</v>
       </c>
       <c r="D25" t="n">
-        <v>386.0243786151989</v>
+        <v>129.121274646195</v>
       </c>
       <c r="E25" t="n">
-        <v>386.0243786151989</v>
+        <v>129.121274646195</v>
       </c>
       <c r="F25" t="n">
-        <v>233.543723640976</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G25" t="n">
-        <v>233.543723640976</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H25" t="n">
-        <v>233.543723640976</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I25" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J25" t="n">
         <v>42.02425610119923</v>
@@ -6166,31 +6168,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q25" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R25" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S25" t="n">
-        <v>386.0243786151989</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="T25" t="n">
-        <v>386.0243786151989</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="U25" t="n">
-        <v>386.0243786151989</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="V25" t="n">
-        <v>386.0243786151989</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="W25" t="n">
-        <v>386.0243786151989</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="X25" t="n">
-        <v>386.0243786151989</v>
+        <v>129.121274646195</v>
       </c>
       <c r="Y25" t="n">
-        <v>386.0243786151989</v>
+        <v>129.121274646195</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1253.996048895397</v>
+        <v>1605.718890124891</v>
       </c>
       <c r="C26" t="n">
-        <v>1253.996048895397</v>
+        <v>1223.785131457699</v>
       </c>
       <c r="D26" t="n">
-        <v>881.1720841226202</v>
+        <v>850.9611666849221</v>
       </c>
       <c r="E26" t="n">
-        <v>486.386364228727</v>
+        <v>456.1754467910289</v>
       </c>
       <c r="F26" t="n">
-        <v>72.23517353889736</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G26" t="n">
         <v>42.02425610119923</v>
@@ -6224,16 +6226,16 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J26" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K26" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L26" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M26" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N26" t="n">
         <v>1473.619070444537</v>
@@ -6263,13 +6265,13 @@
         <v>2010.574518555815</v>
       </c>
       <c r="W26" t="n">
-        <v>1648.039588413416</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="X26" t="n">
-        <v>1648.039588413416</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="Y26" t="n">
-        <v>1648.039588413416</v>
+        <v>1999.76242964291</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>461.879904359699</v>
+        <v>852.9547312933042</v>
       </c>
       <c r="C27" t="n">
-        <v>300.1762316006536</v>
+        <v>691.251058534259</v>
       </c>
       <c r="D27" t="n">
-        <v>161.3375945908657</v>
+        <v>552.412421524471</v>
       </c>
       <c r="E27" t="n">
-        <v>141.9621135545012</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F27" t="n">
-        <v>141.9621135545012</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G27" t="n">
         <v>141.9621135545012</v>
@@ -6312,7 +6314,7 @@
         <v>637.3366538315036</v>
       </c>
       <c r="M27" t="n">
-        <v>895.6512888769911</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N27" t="n">
         <v>1406.916935000113</v>
@@ -6327,28 +6329,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R27" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S27" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T27" t="n">
-        <v>1699.943945333632</v>
+        <v>1912.527701225946</v>
       </c>
       <c r="U27" t="n">
-        <v>1481.449152931943</v>
+        <v>1694.032908824257</v>
       </c>
       <c r="V27" t="n">
-        <v>1253.053530380276</v>
+        <v>1465.63728627259</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.737661613587</v>
+        <v>1402.812488547192</v>
       </c>
       <c r="X27" t="n">
-        <v>813.8206734913811</v>
+        <v>1204.895500424986</v>
       </c>
       <c r="Y27" t="n">
-        <v>621.2993471409599</v>
+        <v>1012.374174074565</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1569.153559814029</v>
+        <v>129.7928282211745</v>
       </c>
       <c r="C28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K28" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L28" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M28" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N28" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O28" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U28" t="n">
-        <v>1829.888864255606</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V28" t="n">
-        <v>1569.153559814029</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="W28" t="n">
-        <v>1569.153559814029</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="X28" t="n">
-        <v>1569.153559814029</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="Y28" t="n">
-        <v>1569.153559814029</v>
+        <v>313.3481969055543</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1232.894925352115</v>
+        <v>1738.677874917562</v>
       </c>
       <c r="C29" t="n">
-        <v>850.9611666849221</v>
+        <v>1356.74411625037</v>
       </c>
       <c r="D29" t="n">
-        <v>850.9611666849221</v>
+        <v>983.9201514775932</v>
       </c>
       <c r="E29" t="n">
-        <v>456.1754467910289</v>
+        <v>589.1344315837</v>
       </c>
       <c r="F29" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G29" t="n">
         <v>42.02425610119923</v>
@@ -6461,19 +6463,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J29" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K29" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L29" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M29" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N29" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O29" t="n">
         <v>1778.623654917371</v>
@@ -6488,25 +6490,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S29" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T29" t="n">
-        <v>1689.624883421327</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U29" t="n">
-        <v>1434.739547135321</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V29" t="n">
-        <v>1232.894925352115</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W29" t="n">
-        <v>1232.894925352115</v>
+        <v>1738.677874917562</v>
       </c>
       <c r="X29" t="n">
-        <v>1232.894925352115</v>
+        <v>1738.677874917562</v>
       </c>
       <c r="Y29" t="n">
-        <v>1232.894925352115</v>
+        <v>1738.677874917562</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>921.3370166032433</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C30" t="n">
-        <v>759.6333438441981</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D30" t="n">
-        <v>620.7947068344101</v>
+        <v>189.052266044328</v>
       </c>
       <c r="E30" t="n">
-        <v>473.7666968912813</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F30" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G30" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H30" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I30" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J30" t="n">
-        <v>49.73385863501696</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K30" t="n">
-        <v>279.2244111952056</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L30" t="n">
-        <v>645.0462563653213</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M30" t="n">
-        <v>1130.079609875548</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N30" t="n">
-        <v>1641.34525599867</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O30" t="n">
-        <v>1641.34525599867</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="P30" t="n">
         <v>1943.441175274367</v>
@@ -6582,10 +6584,10 @@
         <v>1011.737661613587</v>
       </c>
       <c r="X30" t="n">
-        <v>921.3370166032433</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y30" t="n">
-        <v>921.3370166032433</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="31">
@@ -6595,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>211.6402256395189</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C31" t="n">
         <v>42.02425610119923</v>
@@ -6646,25 +6648,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S31" t="n">
-        <v>574.0835013471317</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="T31" t="n">
-        <v>574.0835013471317</v>
+        <v>127.1947855664981</v>
       </c>
       <c r="U31" t="n">
-        <v>574.0835013471317</v>
+        <v>127.1947855664981</v>
       </c>
       <c r="V31" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W31" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X31" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y31" t="n">
-        <v>395.1955943238988</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>840.958983135127</v>
+        <v>370.739584530972</v>
       </c>
       <c r="C32" t="n">
-        <v>459.0252244679344</v>
+        <v>370.739584530972</v>
       </c>
       <c r="D32" t="n">
-        <v>86.20125969515794</v>
+        <v>370.739584530972</v>
       </c>
       <c r="E32" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="F32" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G32" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H32" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I32" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J32" t="n">
         <v>114.0228003740049</v>
@@ -6722,28 +6724,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R32" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S32" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T32" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U32" t="n">
-        <v>2010.574518555815</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="V32" t="n">
-        <v>2010.574518555815</v>
+        <v>1509.348194669897</v>
       </c>
       <c r="W32" t="n">
-        <v>2010.574518555815</v>
+        <v>1146.813264527498</v>
       </c>
       <c r="X32" t="n">
-        <v>1628.544378077308</v>
+        <v>764.7831240489911</v>
       </c>
       <c r="Y32" t="n">
-        <v>1235.002522653146</v>
+        <v>764.7831240489911</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>753.0168738400023</v>
+        <v>852.9547312933042</v>
       </c>
       <c r="C33" t="n">
-        <v>591.313201080957</v>
+        <v>691.251058534259</v>
       </c>
       <c r="D33" t="n">
-        <v>452.4745640711691</v>
+        <v>552.412421524471</v>
       </c>
       <c r="E33" t="n">
-        <v>305.4465541280403</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F33" t="n">
-        <v>170.7527560779147</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G33" t="n">
-        <v>42.02425610119923</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H33" t="n">
         <v>42.02425610119923</v>
@@ -6777,52 +6779,52 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J33" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K33" t="n">
-        <v>271.5148086613879</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L33" t="n">
-        <v>637.3366538315036</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M33" t="n">
-        <v>1122.37000734173</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N33" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O33" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P33" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q33" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R33" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S33" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T33" t="n">
-        <v>1912.527701225946</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U33" t="n">
-        <v>1694.032908824257</v>
+        <v>1644.128357313882</v>
       </c>
       <c r="V33" t="n">
-        <v>1465.63728627259</v>
+        <v>1644.128357313882</v>
       </c>
       <c r="W33" t="n">
-        <v>1302.87463109389</v>
+        <v>1402.812488547192</v>
       </c>
       <c r="X33" t="n">
-        <v>1104.957642971684</v>
+        <v>1204.895500424986</v>
       </c>
       <c r="Y33" t="n">
-        <v>912.4363166212631</v>
+        <v>1012.374174074565</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1917.657436375581</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C34" t="n">
-        <v>1748.041466837262</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D34" t="n">
-        <v>1594.969573665025</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K34" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L34" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M34" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N34" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O34" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T34" t="n">
-        <v>2101.212805059961</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="U34" t="n">
-        <v>2101.212805059961</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="V34" t="n">
-        <v>2101.212805059961</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="W34" t="n">
-        <v>2101.212805059961</v>
+        <v>54.74814668020969</v>
       </c>
       <c r="X34" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y34" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>423.9580147683919</v>
+        <v>1100.780178794447</v>
       </c>
       <c r="C35" t="n">
-        <v>42.02425610119923</v>
+        <v>718.8464201272541</v>
       </c>
       <c r="D35" t="n">
-        <v>42.02425610119923</v>
+        <v>346.0224553544776</v>
       </c>
       <c r="E35" t="n">
-        <v>42.02425610119923</v>
+        <v>346.0224553544776</v>
       </c>
       <c r="F35" t="n">
-        <v>42.02425610119923</v>
+        <v>346.0224553544776</v>
       </c>
       <c r="G35" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H35" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I35" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J35" t="n">
         <v>114.0228003740049</v>
@@ -6974,13 +6976,13 @@
         <v>1876.853858790972</v>
       </c>
       <c r="W35" t="n">
-        <v>1593.57355018908</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="X35" t="n">
-        <v>1211.543409710573</v>
+        <v>1494.823718312466</v>
       </c>
       <c r="Y35" t="n">
-        <v>818.001554286411</v>
+        <v>1494.823718312466</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>461.879904359699</v>
+        <v>852.9547312933042</v>
       </c>
       <c r="C36" t="n">
-        <v>300.1762316006536</v>
+        <v>691.251058534259</v>
       </c>
       <c r="D36" t="n">
-        <v>161.3375945908657</v>
+        <v>552.412421524471</v>
       </c>
       <c r="E36" t="n">
-        <v>42.02425610119923</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F36" t="n">
-        <v>42.02425610119923</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G36" t="n">
-        <v>42.02425610119923</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H36" t="n">
         <v>42.02425610119923</v>
@@ -7020,16 +7022,16 @@
         <v>331.768955194494</v>
       </c>
       <c r="L36" t="n">
-        <v>331.768955194494</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M36" t="n">
-        <v>816.8023087047204</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N36" t="n">
-        <v>1249.145305214519</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O36" t="n">
-        <v>1641.34525599867</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="P36" t="n">
         <v>1943.441175274367</v>
@@ -7047,19 +7049,19 @@
         <v>1699.943945333632</v>
       </c>
       <c r="U36" t="n">
-        <v>1481.449152931943</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="V36" t="n">
-        <v>1253.053530380276</v>
+        <v>1471.548322781966</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.737661613587</v>
+        <v>1230.232454015276</v>
       </c>
       <c r="X36" t="n">
-        <v>813.8206734913811</v>
+        <v>1204.895500424986</v>
       </c>
       <c r="Y36" t="n">
-        <v>621.2993471409599</v>
+        <v>1012.374174074565</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>163.8264155199325</v>
+        <v>499.5858184863406</v>
       </c>
       <c r="C37" t="n">
-        <v>163.8264155199325</v>
+        <v>499.5858184863406</v>
       </c>
       <c r="D37" t="n">
-        <v>163.8264155199325</v>
+        <v>346.5139253141033</v>
       </c>
       <c r="E37" t="n">
-        <v>163.8264155199325</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="F37" t="n">
-        <v>163.8264155199325</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G37" t="n">
-        <v>163.8264155199325</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8264155199325</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I37" t="n">
         <v>42.02425610119923</v>
@@ -7117,28 +7119,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R37" t="n">
-        <v>424.5617199615099</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S37" t="n">
-        <v>424.5617199615099</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T37" t="n">
-        <v>424.5617199615099</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U37" t="n">
-        <v>424.5617199615099</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V37" t="n">
-        <v>163.8264155199325</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W37" t="n">
-        <v>163.8264155199325</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X37" t="n">
-        <v>163.8264155199325</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y37" t="n">
-        <v>163.8264155199325</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>625.6249208169779</v>
+        <v>1439.882352021938</v>
       </c>
       <c r="C38" t="n">
-        <v>625.6249208169779</v>
+        <v>1439.882352021938</v>
       </c>
       <c r="D38" t="n">
-        <v>625.6249208169779</v>
+        <v>1439.882352021938</v>
       </c>
       <c r="E38" t="n">
-        <v>230.8392009230848</v>
+        <v>1045.096632128045</v>
       </c>
       <c r="F38" t="n">
-        <v>42.02425610119923</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="G38" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H38" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I38" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J38" t="n">
         <v>114.0228003740049</v>
@@ -7208,16 +7210,16 @@
         <v>2101.212805059961</v>
       </c>
       <c r="V38" t="n">
-        <v>1764.233530955903</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W38" t="n">
-        <v>1401.698600813504</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X38" t="n">
-        <v>1019.668460334997</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Y38" t="n">
-        <v>1019.668460334997</v>
+        <v>1833.925891539957</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>461.879904359699</v>
+        <v>753.0168738400023</v>
       </c>
       <c r="C39" t="n">
-        <v>461.879904359699</v>
+        <v>591.313201080957</v>
       </c>
       <c r="D39" t="n">
-        <v>461.879904359699</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="E39" t="n">
-        <v>461.879904359699</v>
+        <v>305.4465541280403</v>
       </c>
       <c r="F39" t="n">
-        <v>339.0728988411556</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="G39" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H39" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I39" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K39" t="n">
-        <v>331.768955194494</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L39" t="n">
-        <v>331.768955194494</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M39" t="n">
         <v>737.8796590913968</v>
@@ -7284,19 +7286,19 @@
         <v>1699.943945333632</v>
       </c>
       <c r="U39" t="n">
-        <v>1481.449152931943</v>
+        <v>1574.66913429004</v>
       </c>
       <c r="V39" t="n">
-        <v>1253.053530380276</v>
+        <v>1346.273511738374</v>
       </c>
       <c r="W39" t="n">
-        <v>1011.737661613587</v>
+        <v>1104.957642971684</v>
       </c>
       <c r="X39" t="n">
-        <v>813.8206734913811</v>
+        <v>1104.957642971684</v>
       </c>
       <c r="Y39" t="n">
-        <v>621.2993471409599</v>
+        <v>912.4363166212631</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C40" t="n">
-        <v>1931.596835521642</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D40" t="n">
-        <v>1778.524942349404</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E40" t="n">
-        <v>1626.515928110723</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K40" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L40" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M40" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N40" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O40" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W40" t="n">
-        <v>2101.212805059961</v>
+        <v>287.9270998645308</v>
       </c>
       <c r="X40" t="n">
-        <v>2101.212805059961</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="Y40" t="n">
-        <v>2101.212805059961</v>
+        <v>225.5796247855791</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1267.065153230734</v>
+        <v>1972.710392406201</v>
       </c>
       <c r="C41" t="n">
-        <v>1267.065153230734</v>
+        <v>1972.710392406201</v>
       </c>
       <c r="D41" t="n">
-        <v>1267.065153230734</v>
+        <v>1599.886427633425</v>
       </c>
       <c r="E41" t="n">
-        <v>872.2794333368408</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="F41" t="n">
-        <v>458.1282426470112</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G41" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H41" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I41" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J41" t="n">
         <v>114.0228003740049</v>
@@ -7433,28 +7435,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R41" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S41" t="n">
-        <v>2101.212805059961</v>
+        <v>1972.710392406201</v>
       </c>
       <c r="T41" t="n">
-        <v>2101.212805059961</v>
+        <v>1972.710392406201</v>
       </c>
       <c r="U41" t="n">
-        <v>2101.212805059961</v>
+        <v>1972.710392406201</v>
       </c>
       <c r="V41" t="n">
-        <v>2101.212805059961</v>
+        <v>1972.710392406201</v>
       </c>
       <c r="W41" t="n">
-        <v>2101.212805059961</v>
+        <v>1972.710392406201</v>
       </c>
       <c r="X41" t="n">
-        <v>2054.650548172915</v>
+        <v>1972.710392406201</v>
       </c>
       <c r="Y41" t="n">
-        <v>1661.108692748753</v>
+        <v>1972.710392406201</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>813.8206734913811</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C42" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D42" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E42" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F42" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G42" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H42" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I42" t="n">
         <v>42.02425610119923</v>
@@ -7497,43 +7499,43 @@
         <v>697.5908003646097</v>
       </c>
       <c r="M42" t="n">
-        <v>737.8796590913968</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N42" t="n">
-        <v>1249.145305214519</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O42" t="n">
-        <v>1641.34525599867</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P42" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q42" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R42" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S42" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T42" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U42" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V42" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W42" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X42" t="n">
-        <v>813.8206734913811</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y42" t="n">
-        <v>813.8206734913811</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H43" t="n">
         <v>42.02425610119923</v>
@@ -7594,25 +7596,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S43" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T43" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U43" t="n">
-        <v>360.3737387508193</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>315.1789073548413</v>
+        <v>1019.668460334997</v>
       </c>
       <c r="C44" t="n">
-        <v>315.1789073548413</v>
+        <v>747.6694952766663</v>
       </c>
       <c r="D44" t="n">
-        <v>315.1789073548413</v>
+        <v>374.84553050389</v>
       </c>
       <c r="E44" t="n">
-        <v>178.0785040241021</v>
+        <v>374.84553050389</v>
       </c>
       <c r="F44" t="n">
-        <v>40.97810069336293</v>
+        <v>374.84553050389</v>
       </c>
       <c r="G44" t="n">
-        <v>10.85835194379454</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H44" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I44" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J44" t="n">
-        <v>10.85835194379454</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K44" t="n">
-        <v>10.85835194379454</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L44" t="n">
-        <v>10.85835194379454</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M44" t="n">
-        <v>45.36902758981768</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N44" t="n">
-        <v>179.7411328942751</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O44" t="n">
-        <v>314.1132381987326</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P44" t="n">
-        <v>448.4853435031901</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q44" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R44" t="n">
-        <v>452.2793106855804</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S44" t="n">
-        <v>452.2793106855804</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T44" t="n">
-        <v>452.2793106855804</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U44" t="n">
-        <v>315.1789073548413</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V44" t="n">
-        <v>315.1789073548413</v>
+        <v>1764.233530955903</v>
       </c>
       <c r="W44" t="n">
-        <v>315.1789073548413</v>
+        <v>1401.698600813504</v>
       </c>
       <c r="X44" t="n">
-        <v>315.1789073548413</v>
+        <v>1019.668460334997</v>
       </c>
       <c r="Y44" t="n">
-        <v>315.1789073548413</v>
+        <v>1019.668460334997</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>542.9175971897271</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C45" t="n">
-        <v>542.9175971897271</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D45" t="n">
-        <v>542.9175971897271</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E45" t="n">
-        <v>442.6007927338766</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F45" t="n">
-        <v>307.9069946837509</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G45" t="n">
-        <v>179.1784947070355</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H45" t="n">
-        <v>79.24063725373355</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I45" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J45" t="n">
-        <v>71.11249847690068</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K45" t="n">
-        <v>205.4846037813581</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L45" t="n">
-        <v>339.8567090858156</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M45" t="n">
-        <v>339.8567090858156</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N45" t="n">
-        <v>339.8567090858156</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O45" t="n">
-        <v>339.8567090858156</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P45" t="n">
-        <v>474.2288143902731</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q45" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R45" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S45" t="n">
-        <v>542.9175971897271</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T45" t="n">
-        <v>542.9175971897271</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U45" t="n">
-        <v>542.9175971897271</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V45" t="n">
-        <v>542.9175971897271</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W45" t="n">
-        <v>542.9175971897271</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X45" t="n">
-        <v>542.9175971897271</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y45" t="n">
-        <v>542.9175971897271</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>542.9175971897271</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C46" t="n">
-        <v>542.9175971897271</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D46" t="n">
-        <v>422.159561936012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E46" t="n">
-        <v>285.0591586052728</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F46" t="n">
-        <v>147.9587552745337</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G46" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H46" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I46" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J46" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K46" t="n">
-        <v>44.46253968843796</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L46" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M46" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N46" t="n">
-        <v>381.4854669658995</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O46" t="n">
-        <v>479.9491134615892</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P46" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q46" t="n">
-        <v>542.9175971897271</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R46" t="n">
-        <v>542.9175971897271</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S46" t="n">
-        <v>542.9175971897271</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T46" t="n">
-        <v>542.9175971897271</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U46" t="n">
-        <v>542.9175971897271</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V46" t="n">
-        <v>542.9175971897271</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W46" t="n">
-        <v>542.9175971897271</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X46" t="n">
-        <v>542.9175971897271</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y46" t="n">
-        <v>542.9175971897271</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
   </sheetData>
@@ -8152,7 +8154,7 @@
         <v>211.9541662756472</v>
       </c>
       <c r="P4" t="n">
-        <v>175.5085323082535</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q4" t="n">
         <v>84.9458458910769</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L5" t="n">
         <v>327.2896114605464</v>
       </c>
       <c r="M5" t="n">
-        <v>322.8857137945909</v>
+        <v>285.0191798281439</v>
       </c>
       <c r="N5" t="n">
-        <v>322.1275134696619</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O5" t="n">
-        <v>317.2001799443227</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P5" t="n">
         <v>187.8768090511565</v>
       </c>
       <c r="Q5" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8292,28 +8294,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>248.3048328685796</v>
+        <v>242.82081673535</v>
       </c>
       <c r="M6" t="n">
-        <v>184.8665114499772</v>
+        <v>251.2133018590717</v>
       </c>
       <c r="N6" t="n">
         <v>242.4445403651401</v>
       </c>
       <c r="O6" t="n">
-        <v>115.8594486111111</v>
+        <v>251.5888479085429</v>
       </c>
       <c r="P6" t="n">
         <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
-        <v>249.4645907423243</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8453,22 +8455,22 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K8" t="n">
-        <v>314.5524032714785</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
-        <v>289.4230774940994</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
         <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
-        <v>186.3981141722301</v>
+        <v>284.2609795032149</v>
       </c>
       <c r="O8" t="n">
         <v>322.6841960775522</v>
       </c>
       <c r="P8" t="n">
-        <v>187.8768090511565</v>
+        <v>323.6062083485883</v>
       </c>
       <c r="Q8" t="n">
         <v>276.0094878578761</v>
@@ -8535,7 +8537,7 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>181.9580424594851</v>
       </c>
       <c r="M9" t="n">
         <v>251.2133018590717</v>
@@ -8544,7 +8546,7 @@
         <v>242.4445403651401</v>
       </c>
       <c r="O9" t="n">
-        <v>185.2420574994484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
         <v>108.8542060241433</v>
@@ -8690,7 +8692,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
-        <v>314.5524032714785</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L11" t="n">
         <v>289.4230774940994</v>
@@ -8702,7 +8704,7 @@
         <v>186.3981141722301</v>
       </c>
       <c r="O11" t="n">
-        <v>186.9547967801205</v>
+        <v>322.6841960775522</v>
       </c>
       <c r="P11" t="n">
         <v>323.6062083485883</v>
@@ -8772,7 +8774,7 @@
         <v>247.7255684640984</v>
       </c>
       <c r="L12" t="n">
-        <v>248.3048328685796</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M12" t="n">
         <v>115.4839025616399</v>
@@ -8781,10 +8783,10 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O12" t="n">
-        <v>115.8594486111111</v>
+        <v>185.2420574994484</v>
       </c>
       <c r="P12" t="n">
-        <v>178.2368149124807</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q12" t="n">
         <v>249.4645907423243</v>
@@ -8927,25 +8929,25 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K14" t="n">
-        <v>314.5524032714785</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L14" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605464</v>
       </c>
       <c r="M14" t="n">
-        <v>187.1563144971591</v>
+        <v>322.8857137945909</v>
       </c>
       <c r="N14" t="n">
-        <v>221.2573825015464</v>
+        <v>322.1275134696619</v>
       </c>
       <c r="O14" t="n">
-        <v>322.6841960775522</v>
+        <v>317.2001799443227</v>
       </c>
       <c r="P14" t="n">
-        <v>323.6062083485883</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q14" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9006,25 +9008,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>247.7255684640984</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L15" t="n">
-        <v>248.3048328685796</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M15" t="n">
-        <v>251.2133018590717</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N15" t="n">
-        <v>106.7151410677083</v>
+        <v>242.4445403651401</v>
       </c>
       <c r="O15" t="n">
-        <v>115.8594486111111</v>
+        <v>251.5888479085429</v>
       </c>
       <c r="P15" t="n">
-        <v>178.2368149124807</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.7351914448925</v>
+        <v>183.1178003332298</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>213.682272303363</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>327.2896114605464</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>322.8857137945909</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
-        <v>322.1275134696619</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O17" t="n">
-        <v>186.9547967801205</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>187.8768090511565</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
         <v>276.0094878578761</v>
@@ -9243,25 +9245,25 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K18" t="n">
-        <v>247.7255684640984</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L18" t="n">
-        <v>248.3048328685796</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M18" t="n">
-        <v>251.2133018590717</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>236.9605242319105</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9419,7 +9421,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9486,7 +9488,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>547.3536410187814</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -9495,10 +9497,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>414.0015992319183</v>
+        <v>196.5733747639883</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9714,16 +9716,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>325.5269987024317</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M24" t="n">
-        <v>605.4165828749999</v>
+        <v>525.6967347807335</v>
       </c>
       <c r="N24" t="n">
         <v>623.1450866466196</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K26" t="n">
         <v>421.3890363425141</v>
@@ -9884,7 +9886,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N26" t="n">
-        <v>568.5510017355789</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O26" t="n">
         <v>495.0402356415689</v>
@@ -9960,10 +9962,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>376.4077763449607</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>394.1362801165803</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K29" t="n">
         <v>421.3890363425141</v>
@@ -10188,7 +10190,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>110.8430489735533</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10206,7 +10208,7 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P30" t="n">
-        <v>414.0015992319183</v>
+        <v>360.9263022629402</v>
       </c>
       <c r="Q30" t="n">
         <v>273.1004740566038</v>
@@ -10425,19 +10427,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>387.98835840707</v>
       </c>
       <c r="N33" t="n">
-        <v>394.1362801165803</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10446,7 +10448,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10601,7 +10603,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
-        <v>418.3383206229271</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
         <v>276.0094878578761</v>
@@ -10668,19 +10670,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>543.4252385523532</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
-        <v>512.0210150597484</v>
+        <v>367.9315448499079</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q36" t="n">
         <v>273.1004740566038</v>
@@ -10841,7 +10843,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10899,16 +10901,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L39" t="n">
-        <v>112.5754335711478</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M39" t="n">
-        <v>525.6967347807335</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
         <v>623.1450866466196</v>
@@ -11145,7 +11147,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>156.1797194573845</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
         <v>623.1450866466196</v>
@@ -11154,10 +11156,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>178.8230039740467</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>191.5602121631146</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>222.0155828264754</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>322.1275134696619</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O44" t="n">
-        <v>322.6841960775522</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>323.6062083485883</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
         <v>276.0094878578761</v>
@@ -11376,25 +11378,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>247.7255684640984</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>248.3048328685796</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>115.4839025616399</v>
+        <v>156.1797194573845</v>
       </c>
       <c r="N45" t="n">
-        <v>106.7151410677083</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>244.5836053215751</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>183.1178003332298</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>254.3737048254072</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
         <v>378.1144210805207</v>
@@ -22595,25 +22597,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>65.80623071477164</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>86.38595750886716</v>
+        <v>102.564901905121</v>
       </c>
       <c r="U2" t="n">
-        <v>116.6070836257141</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>223.1801815435432</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>242.4804397762898</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>253.8770375724886</v>
       </c>
     </row>
     <row r="3">
@@ -22626,7 +22628,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>24.35723673402308</v>
+        <v>38.15364190246959</v>
       </c>
       <c r="D3" t="n">
         <v>1.720851342258271</v>
@@ -22635,7 +22637,7 @@
         <v>9.828330546265704</v>
       </c>
       <c r="F3" t="n">
-        <v>72.98283138445017</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>127.4412149769483</v>
@@ -22671,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
@@ -22714,19 +22716,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>90.86205972327178</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>31.50115184839672</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>22.04951947108714</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>7.031614655916485</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,16 +22752,16 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>28.47610867058764</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>75.84326567291754</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>95.11776435504618</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>148.5889378183593</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
@@ -22799,10 +22801,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>193.763662361232</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>35.35962750586017</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,19 +22837,19 @@
         <v>49.6272863185178</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>192.2968055442262</v>
       </c>
       <c r="U5" t="n">
-        <v>116.6070836257141</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>329.0910295789022</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>242.4804397762898</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -22863,25 +22865,25 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>24.35723673402308</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>105.4305196484091</v>
       </c>
       <c r="F6" t="n">
-        <v>13.79640516844648</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>51.06885349824287</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
@@ -22926,7 +22928,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>60.20841894355158</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
         <v>190.5961130869169</v>
@@ -22948,22 +22950,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>14.75952479886257</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>90.8620597232719</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>31.50115184839672</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>22.04951947108714</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>7.031614655916485</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -23002,13 +23004,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>147.5654381703431</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
-        <v>93.21054016614622</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>100.2643523184679</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="8">
@@ -23024,7 +23026,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>233.3663258276169</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
@@ -23039,7 +23041,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>51.53857190211403</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>49.6272863185178</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>86.38595750886716</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>116.6070836257141</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>303.7909301009453</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>242.4804397762898</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>253.8770375724886</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>15.54209281995534</v>
@@ -23154,13 +23156,13 @@
         <v>51.06885349824287</v>
       </c>
       <c r="U9" t="n">
-        <v>80.58044518024116</v>
+        <v>155.9458157924987</v>
       </c>
       <c r="V9" t="n">
-        <v>106.5612114249714</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>103.1733107815913</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -23227,13 +23229,13 @@
         <v>12.2971642743338</v>
       </c>
       <c r="S10" t="n">
-        <v>130.1741780020194</v>
+        <v>75.84326567291754</v>
       </c>
       <c r="T10" t="n">
         <v>95.11776435504618</v>
       </c>
       <c r="U10" t="n">
-        <v>148.5889378183593</v>
+        <v>202.9198501474611</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -23264,7 +23266,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>255.1084633975224</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
         <v>290.4592238817534</v>
@@ -23273,7 +23275,7 @@
         <v>276.2135473829221</v>
       </c>
       <c r="H11" t="n">
-        <v>329.4930616586638</v>
+        <v>193.763662361232</v>
       </c>
       <c r="I11" t="n">
         <v>35.35962750586017</v>
@@ -23343,19 +23345,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>46.24409343240548</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>151.2714921173871</v>
+        <v>15.54209281995534</v>
       </c>
       <c r="T12" t="n">
-        <v>186.7982527956746</v>
+        <v>51.06885349824287</v>
       </c>
       <c r="U12" t="n">
-        <v>216.3098444776729</v>
+        <v>80.58044518024116</v>
       </c>
       <c r="V12" t="n">
-        <v>226.1116663261494</v>
+        <v>165.7476376409751</v>
       </c>
       <c r="W12" t="n">
         <v>238.9027100790231</v>
@@ -23416,28 +23418,28 @@
         <v>181.719814997536</v>
       </c>
       <c r="C13" t="n">
-        <v>32.19041054550473</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D13" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
-        <v>14.75952479886257</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
-        <v>15.22644912704888</v>
+        <v>129.0140276561198</v>
       </c>
       <c r="G13" t="n">
-        <v>167.2305511458285</v>
+        <v>31.50115184839672</v>
       </c>
       <c r="H13" t="n">
-        <v>157.7789187685189</v>
+        <v>22.04951947108714</v>
       </c>
       <c r="I13" t="n">
-        <v>142.7610139533483</v>
+        <v>7.031614655916485</v>
       </c>
       <c r="J13" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>148.0265635717656</v>
@@ -23479,7 +23481,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
-        <v>109.3894845624002</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y13" t="n">
         <v>219.8148072196457</v>
@@ -23495,22 +23497,22 @@
         <v>254.3737048254072</v>
       </c>
       <c r="C14" t="n">
-        <v>242.3850217830889</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>255.1084633975224</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>274.2802794854996</v>
       </c>
       <c r="G14" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H14" t="n">
-        <v>329.4930616586638</v>
+        <v>209.9426067574859</v>
       </c>
       <c r="I14" t="n">
         <v>171.0890268032919</v>
@@ -23552,7 +23554,7 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V14" t="n">
-        <v>214.0590264618401</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
         <v>358.909580840975</v>
@@ -23561,7 +23563,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
-        <v>253.8770375724886</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="15">
@@ -23577,7 +23579,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>1.720851342258271</v>
       </c>
       <c r="E15" t="n">
         <v>145.5577298436975</v>
@@ -23628,7 +23630,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
-        <v>80.58044518024116</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -23637,10 +23639,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
-        <v>60.20841894355158</v>
+        <v>76.38736333980542</v>
       </c>
       <c r="Y15" t="n">
-        <v>71.04565818573901</v>
+        <v>54.86671378948517</v>
       </c>
     </row>
     <row r="16">
@@ -23653,7 +23655,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C16" t="n">
-        <v>32.19041054550473</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
         <v>151.5411742405149</v>
@@ -23668,13 +23670,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H16" t="n">
-        <v>22.04951947108714</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I16" t="n">
-        <v>7.031614655916485</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23701,16 +23703,16 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S16" t="n">
-        <v>211.5726649703493</v>
+        <v>75.84326567291754</v>
       </c>
       <c r="T16" t="n">
-        <v>230.8471636524779</v>
+        <v>95.11776435504618</v>
       </c>
       <c r="U16" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183593</v>
       </c>
       <c r="V16" t="n">
-        <v>258.1279513971616</v>
+        <v>138.5774964959838</v>
       </c>
       <c r="W16" t="n">
         <v>283.2948374677749</v>
@@ -23719,7 +23721,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y16" t="n">
-        <v>159.7210185184369</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>378.1144210805207</v>
@@ -23738,7 +23740,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>410.0096787829314</v>
@@ -23750,7 +23752,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I17" t="n">
-        <v>171.0890268032919</v>
+        <v>129.8910905756327</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>185.3566856159496</v>
@@ -23786,19 +23788,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U17" t="n">
-        <v>132.786028021968</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V17" t="n">
-        <v>197.8800820655863</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>242.4804397762898</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>253.8770375724886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23808,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>46.24409343240548</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>151.2714921173871</v>
@@ -23865,19 +23867,19 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U18" t="n">
-        <v>216.3098444776729</v>
+        <v>116.7927962080469</v>
       </c>
       <c r="V18" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23896,13 +23898,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>30.93846919511653</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>15.22644912704888</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>31.50115184839672</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H19" t="n">
         <v>157.7789187685189</v>
@@ -23938,16 +23940,16 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>75.84326567291754</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T19" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U19" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="W19" t="n">
         <v>283.2948374677749</v>
@@ -24014,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>25.90472907070392</v>
       </c>
       <c r="V20" t="n">
-        <v>164.1990942910826</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>18.28174902251334</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24099,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>186.7982527956746</v>
+        <v>9.142183577204776</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24111,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
         <v>190.5961130869169</v>
@@ -24169,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>101.8597073339676</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>284.3183371157911</v>
@@ -24193,7 +24195,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>135.495983049</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24212,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9429466803539</v>
+        <v>288.2974124254134</v>
       </c>
       <c r="H23" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24266,13 +24268,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>139.9818168665056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24291,13 +24293,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>95.69231349987228</v>
       </c>
       <c r="H24" t="n">
         <v>98.93847887876893</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24373,7 +24375,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>64.72980006493482</v>
       </c>
       <c r="G25" t="n">
         <v>167.2305511458285</v>
@@ -24382,10 +24384,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I25" t="n">
-        <v>12.61340728893828</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>230.8471636524779</v>
@@ -24427,7 +24429,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>219.8148072196457</v>
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24455,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>382.0341384170328</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H26" t="n">
         <v>329.4930616586638</v>
@@ -24503,13 +24505,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>378.9024688461451</v>
       </c>
     </row>
     <row r="27">
@@ -24528,13 +24530,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>126.3760036176966</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24567,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24582,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>176.7061603308782</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.9198098429365</v>
+        <v>81.02892344416102</v>
       </c>
       <c r="D28" t="n">
         <v>151.5411742405149</v>
@@ -24655,7 +24657,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U28" t="n">
-        <v>15.70763571947987</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24683,16 +24685,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>280.3135517356095</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>329.4930616586638</v>
@@ -24728,19 +24730,19 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V29" t="n">
-        <v>133.7833057976443</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>378.2098390737216</v>
@@ -24756,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>27.43752473892768</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24822,10 +24824,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>106.4411796807436</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
         <v>151.5411742405149</v>
@@ -24886,16 +24888,16 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S31" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V31" t="n">
-        <v>258.1279513971616</v>
+        <v>173.8091272265157</v>
       </c>
       <c r="W31" t="n">
         <v>283.2948374677749</v>
@@ -24904,7 +24906,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
-        <v>42.71577926664511</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="32">
@@ -24917,13 +24919,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>347.1026291369351</v>
+        <v>65.4096875494792</v>
       </c>
       <c r="F32" t="n">
         <v>410.0096787829314</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
         <v>185.3566856159496</v>
@@ -24971,19 +24973,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U32" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -25011,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>67.69846245683961</v>
@@ -25041,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>161.0524123381197</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W33" t="n">
-        <v>77.76768145210914</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
-        <v>124.9310703838086</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F34" t="n">
         <v>150.9558484244806</v>
@@ -25126,7 +25128,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T34" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>284.3183371157911</v>
@@ -25135,10 +25137,10 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>228.939939463578</v>
+        <v>216.3432877903576</v>
       </c>
       <c r="Y34" t="n">
         <v>219.8148072196457</v>
@@ -25157,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>390.8378626949542</v>
@@ -25166,13 +25168,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9429466803539</v>
+        <v>282.0737562229002</v>
       </c>
       <c r="H35" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I35" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25214,13 +25216,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>78.46207532510113</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -25239,16 +25241,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>67.69846245683961</v>
@@ -25287,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25296,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>170.8542341865962</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>181.719814997536</v>
+        <v>107.9671089653528</v>
       </c>
       <c r="C37" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.2305511458285</v>
@@ -25330,7 +25332,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
-        <v>22.17687612880233</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J37" t="n">
         <v>59.456666199969</v>
@@ -25357,7 +25359,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
         <v>211.5726649703493</v>
@@ -25369,7 +25371,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
         <v>283.2948374677749</v>
@@ -25400,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>223.0828834092647</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I38" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25448,16 +25450,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
-        <v>389.6064368699203</v>
+        <v>124.9923924851162</v>
       </c>
     </row>
     <row r="39">
@@ -25470,25 +25472,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>11.76792460626649</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25524,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>92.28778154451655</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25533,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>94.1671038107533</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
         <v>167.2305511458285</v>
@@ -25609,10 +25611,10 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>228.939939463578</v>
+        <v>167.2159391354157</v>
       </c>
       <c r="Y40" t="n">
         <v>219.8148072196457</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>171.0890268032919</v>
@@ -25673,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>185.3566856159496</v>
+        <v>147.8712007278323</v>
       </c>
       <c r="T41" t="n">
         <v>222.1153568062989</v>
@@ -25691,10 +25693,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>332.1132047555458</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>106.4411796807437</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25716,16 +25718,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25773,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25801,7 +25803,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H43" t="n">
-        <v>100.7408823425567</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I43" t="n">
         <v>142.7610139533483</v>
@@ -25834,16 +25836,16 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T43" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U43" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="W43" t="n">
         <v>283.2948374677749</v>
@@ -25865,22 +25867,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
-        <v>378.1144210805207</v>
+        <v>108.8354456727733</v>
       </c>
       <c r="D44" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>255.1084633975224</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>274.2802794854996</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>382.1243954182812</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H44" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>171.0890268032919</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>185.3566856159496</v>
@@ -25919,16 +25921,16 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U44" t="n">
-        <v>116.6070836257141</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>389.6064368699203</v>
@@ -25941,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>46.24409343240548</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26026,16 +26028,16 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
-        <v>31.99071933933696</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>14.75952479886257</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>15.22644912704888</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>31.50115184839672</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H46" t="n">
         <v>157.7789187685189</v>
@@ -26077,10 +26079,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U46" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="W46" t="n">
         <v>283.2948374677749</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>387746.8515499119</v>
+        <v>387746.851549912</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>387746.8515499118</v>
+        <v>387746.851549912</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>387746.8515499119</v>
+        <v>387746.851549912</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>387746.8515499116</v>
+        <v>387746.851549912</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>387746.8515499118</v>
+        <v>664791.3689705906</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>664791.3689705906</v>
+        <v>664791.3689705904</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>664791.3689705909</v>
+        <v>664791.3689705904</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>664791.3689705905</v>
+        <v>664791.3689705906</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>664791.3689705909</v>
+        <v>664791.3689705906</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>664791.3689705909</v>
+        <v>664791.3689705906</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>664791.3689705905</v>
+        <v>664791.3689705906</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>664791.3689705906</v>
+        <v>664791.3689705905</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>387746.8515499118</v>
+        <v>664791.3689705905</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>90437.8313060301</v>
+      </c>
+      <c r="C2" t="n">
+        <v>90437.83130603006</v>
+      </c>
+      <c r="D2" t="n">
+        <v>90437.8313060301</v>
+      </c>
+      <c r="E2" t="n">
         <v>90437.83130603009</v>
       </c>
-      <c r="C2" t="n">
-        <v>90437.83130603009</v>
-      </c>
-      <c r="D2" t="n">
-        <v>90437.83130603007</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>90437.8313060301</v>
       </c>
-      <c r="F2" t="n">
-        <v>90437.83130603009</v>
-      </c>
       <c r="G2" t="n">
-        <v>90437.83130603007</v>
+        <v>154994.1683618825</v>
       </c>
       <c r="H2" t="n">
         <v>154994.1683618825</v>
@@ -26341,19 +26343,19 @@
         <v>154994.1683618825</v>
       </c>
       <c r="L2" t="n">
-        <v>154994.1683618825</v>
+        <v>154994.1683618826</v>
       </c>
       <c r="M2" t="n">
-        <v>154994.1683618825</v>
+        <v>154994.1683618826</v>
       </c>
       <c r="N2" t="n">
         <v>154994.1683618825</v>
       </c>
       <c r="O2" t="n">
+        <v>154994.1683618826</v>
+      </c>
+      <c r="P2" t="n">
         <v>154994.1683618825</v>
-      </c>
-      <c r="P2" t="n">
-        <v>90437.83130603007</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45486.04348075322</v>
+        <v>45486.0434807532</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>106776.3355122783</v>
       </c>
       <c r="H3" t="n">
-        <v>105110.517935065</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>93751.32501729493</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,10 +26420,10 @@
         <v>26113.22428004297</v>
       </c>
       <c r="C4" t="n">
+        <v>26113.22428004298</v>
+      </c>
+      <c r="D4" t="n">
         <v>26113.22428004297</v>
-      </c>
-      <c r="D4" t="n">
-        <v>26113.22428004298</v>
       </c>
       <c r="E4" t="n">
         <v>26113.22428004297</v>
@@ -26430,7 +26432,7 @@
         <v>26113.22428004297</v>
       </c>
       <c r="G4" t="n">
-        <v>26113.22428004297</v>
+        <v>45214.68101527123</v>
       </c>
       <c r="H4" t="n">
         <v>45214.68101527123</v>
@@ -26442,10 +26444,10 @@
         <v>45214.68101527123</v>
       </c>
       <c r="K4" t="n">
-        <v>45214.68101527123</v>
+        <v>45214.68101527124</v>
       </c>
       <c r="L4" t="n">
-        <v>45214.68101527123</v>
+        <v>45214.68101527124</v>
       </c>
       <c r="M4" t="n">
         <v>45214.68101527123</v>
@@ -26457,7 +26459,7 @@
         <v>45214.68101527123</v>
       </c>
       <c r="P4" t="n">
-        <v>26113.22428004297</v>
+        <v>45214.68101527124</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26484,7 @@
         <v>8252.347477283851</v>
       </c>
       <c r="G5" t="n">
-        <v>8252.347477283851</v>
+        <v>31938.43463691141</v>
       </c>
       <c r="H5" t="n">
         <v>31938.43463691141</v>
@@ -26509,7 +26511,7 @@
         <v>31938.43463691141</v>
       </c>
       <c r="P5" t="n">
-        <v>8252.347477283851</v>
+        <v>31938.43463691141</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23041.38393204996</v>
+        <v>-23041.38393204992</v>
       </c>
       <c r="C6" t="n">
-        <v>22444.65954870326</v>
+        <v>22444.65954870323</v>
       </c>
       <c r="D6" t="n">
-        <v>22444.65954870324</v>
+        <v>22444.65954870328</v>
       </c>
       <c r="E6" t="n">
+        <v>56072.25954870326</v>
+      </c>
+      <c r="F6" t="n">
         <v>56072.25954870327</v>
       </c>
-      <c r="F6" t="n">
-        <v>56072.25954870326</v>
-      </c>
       <c r="G6" t="n">
-        <v>56072.25954870324</v>
+        <v>-28935.28280257841</v>
       </c>
       <c r="H6" t="n">
-        <v>-27269.46522536512</v>
+        <v>77841.05270969987</v>
       </c>
       <c r="I6" t="n">
-        <v>77841.05270969987</v>
+        <v>77841.05270969984</v>
       </c>
       <c r="J6" t="n">
-        <v>42328.26975992264</v>
+        <v>42328.26975992261</v>
       </c>
       <c r="K6" t="n">
         <v>77841.05270969987</v>
       </c>
       <c r="L6" t="n">
-        <v>77841.05270969987</v>
+        <v>77841.05270969993</v>
       </c>
       <c r="M6" t="n">
+        <v>77841.05270969993</v>
+      </c>
+      <c r="N6" t="n">
         <v>77841.05270969984</v>
       </c>
-      <c r="N6" t="n">
-        <v>77841.05270969987</v>
-      </c>
       <c r="O6" t="n">
-        <v>77841.05270969984</v>
+        <v>-15910.27230759501</v>
       </c>
       <c r="P6" t="n">
-        <v>56072.25954870324</v>
+        <v>77841.0527096999</v>
       </c>
     </row>
   </sheetData>
@@ -26802,7 +26804,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="G4" t="n">
-        <v>135.7293992974318</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="H4" t="n">
         <v>525.3032012649903</v>
@@ -26829,7 +26831,7 @@
         <v>525.3032012649903</v>
       </c>
       <c r="P4" t="n">
-        <v>135.7293992974318</v>
+        <v>525.3032012649903</v>
       </c>
     </row>
   </sheetData>
@@ -27024,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>389.5738019675586</v>
       </c>
       <c r="H4" t="n">
-        <v>389.5738019675586</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>389.5738019675586</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>389.5738019675586</v>
       </c>
       <c r="P4" t="n">
-        <v>389.5738019675586</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34872,7 +34874,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P4" t="n">
-        <v>63.60452901832108</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L5" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="M5" t="n">
-        <v>135.7293992974318</v>
+        <v>97.8628653309848</v>
       </c>
       <c r="N5" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>130.2453831642022</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>130.2453831642022</v>
+      </c>
+      <c r="M6" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="M6" t="n">
-        <v>69.38260888833734</v>
       </c>
       <c r="N6" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>97.86286533098477</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Q8" t="n">
         <v>95.38611483488586</v>
@@ -35255,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>69.38260888833736</v>
       </c>
       <c r="M9" t="n">
         <v>135.7293992974318</v>
@@ -35264,7 +35266,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="O9" t="n">
-        <v>69.38260888833734</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>97.86286533098477</v>
@@ -35422,7 +35424,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="P11" t="n">
         <v>135.7293992974318</v>
@@ -35492,19 +35494,19 @@
         <v>135.7293992974318</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>69.38260888833734</v>
+      </c>
+      <c r="P12" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>69.38260888833734</v>
       </c>
       <c r="Q12" t="n">
         <v>135.7293992974318</v>
@@ -35647,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="N14" t="n">
-        <v>34.85926832931631</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="O14" t="n">
-        <v>135.7293992974318</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="P14" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="L15" t="n">
+      <c r="O15" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="M15" t="n">
+      <c r="P15" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>69.38260888833734</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
-        <v>34.85926832931629</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>135.7293992974318</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>135.7293992974318</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>135.7293992974318</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
         <v>95.38611483488586</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>135.7293992974318</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M18" t="n">
-        <v>135.7293992974318</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N18" t="n">
-        <v>130.2453831642022</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36206,7 +36208,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M21" t="n">
-        <v>431.8697384571415</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N21" t="n">
         <v>516.4299455789112</v>
@@ -36215,10 +36217,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P21" t="n">
-        <v>305.147393207775</v>
+        <v>87.71916873984496</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
-        <v>212.9515651312839</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>489.93268031336</v>
+        <v>410.2128322190937</v>
       </c>
       <c r="N24" t="n">
         <v>516.4299455789112</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>72.72580229576329</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K26" t="n">
         <v>242.5660323684674</v>
@@ -36604,7 +36606,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N26" t="n">
-        <v>382.1528875633487</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O26" t="n">
         <v>308.0854388614484</v>
@@ -36680,10 +36682,10 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M27" t="n">
-        <v>260.9238737833207</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N27" t="n">
-        <v>516.4299455789112</v>
+        <v>287.421139048872</v>
       </c>
       <c r="O27" t="n">
         <v>396.1615664486372</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K29" t="n">
         <v>242.5660323684674</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>7.787477306886596</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K30" t="n">
         <v>231.8086389496855</v>
@@ -36926,7 +36928,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>305.147393207775</v>
+        <v>252.0720962387968</v>
       </c>
       <c r="Q30" t="n">
         <v>159.3652826117113</v>
@@ -37145,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K33" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M33" t="n">
-        <v>489.93268031336</v>
+        <v>272.5044558454301</v>
       </c>
       <c r="N33" t="n">
-        <v>287.421139048872</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O33" t="n">
         <v>396.1615664486372</v>
@@ -37166,7 +37168,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37321,7 +37323,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
-        <v>230.4615115717706</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
         <v>95.38611483488586</v>
@@ -37388,19 +37390,19 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M36" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N36" t="n">
-        <v>436.7100974846449</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O36" t="n">
-        <v>396.1615664486372</v>
+        <v>252.0720962387968</v>
       </c>
       <c r="P36" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>159.3652826117113</v>
@@ -37561,7 +37563,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M39" t="n">
-        <v>410.2128322190937</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N39" t="n">
         <v>516.4299455789112</v>
@@ -37865,7 +37867,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M42" t="n">
-        <v>40.69581689574456</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N42" t="n">
         <v>516.4299455789112</v>
@@ -37874,10 +37876,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P42" t="n">
-        <v>305.147393207775</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
-        <v>34.85926832931629</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>135.7293992974318</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>135.7293992974318</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>135.7293992974318</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
         <v>95.38611483488586</v>
@@ -38096,25 +38098,25 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K45" t="n">
-        <v>135.7293992974318</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L45" t="n">
-        <v>135.7293992974318</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>40.69581689574456</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P45" t="n">
-        <v>135.7293992974318</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q45" t="n">
-        <v>69.38260888833734</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
